--- a/xlsx/犹他州_intext.xlsx
+++ b/xlsx/犹他州_intext.xlsx
@@ -15,1167 +15,1164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
   <si>
     <t>犹他州</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E%E5%B7%9E%E6%97%97</t>
+  </si>
+  <si>
+    <t>犹他州州旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E6%B9%96%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>盐湖城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
+  </si>
+  <si>
+    <t>en-List of U.S. states by elevation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Utah</t>
+  </si>
+  <si>
+    <t>en-List of Governors of Utah</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C%C2%B7%E8%B5%AB%E4%BC%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>加里·赫伯特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E%E5%89%AF%E5%B7%9E%E9%95%BF</t>
+  </si>
+  <si>
+    <t>犹他州副州长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%B3%93%E5%A1%9E%C2%B7%E8%80%83%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>斯宾塞·考克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Utah</t>
+  </si>
+  <si>
+    <t>en-List of United States Senators from Utah</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
+  </si>
+  <si>
+    <t>奥林·哈奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E6%9D%8E_(%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB%E5%AE%B6)</t>
+  </si>
+  <si>
+    <t>麦克·李 (美国政治家)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Utah</t>
+  </si>
+  <si>
+    <t>en-United States congressional delegations from Utah</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美山区时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9207:00</t>
+  </si>
+  <si>
+    <t>UTC−07-00</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9206:00</t>
+  </si>
+  <si>
+    <t>UTC−06-00</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
+  </si>
+  <si>
+    <t>ISO 3166-2-US</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>犹他州行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
+  </si>
+  <si>
+    <t>郡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%90%E6%B9%96%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%9F%BA%E7%9D%A3%E5%BE%8C%E6%9C%9F%E8%81%96%E5%BE%92%E6%95%99%E6%9C%83</t>
+  </si>
+  <si>
+    <t>耶稣基督后期圣徒教会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%A0%BC%E7%99%BB_(%E7%8A%B9%E4%BB%96%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>奥格登 (犹他州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8B%A5%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>普若佛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国人口调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%B9%94%E6%B2%BB_(%E7%8A%B9%E4%BB%96%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>圣乔治 (犹他州)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gallup</t>
+  </si>
+  <si>
+    <t>en-Gallup</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ute_people</t>
+  </si>
+  <si>
+    <t>en-Ute people</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Colorado_River_Numic_language</t>
+  </si>
+  <si>
+    <t>en-Colorado River Numic language</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E6%99%AE%E9%9F%A6%E5%B8%83%E6%B4%9B%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>古代普韦布洛印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%82%A3%E8%90%A8%E5%90%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>阿那萨吉人</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Fremont_culture</t>
+  </si>
+  <si>
+    <t>en-Fremont culture</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E9%9C%8D%E6%97%8F</t>
+  </si>
+  <si>
+    <t>纳瓦霍族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%96%E6%9D%BE%E5%B0%BC%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>肖松尼人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E5%B0%A4%E7%89%B9%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>派尤特人</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Goshute</t>
+  </si>
+  <si>
+    <t>en-Goshute</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E7%A7%91%C2%B7%E5%B7%B4%E6%96%AF%E5%85%8B%E6%96%AF%C2%B7%E5%BE%B7%C2%B7%E7%A7%91%E7%BD%97%E7%BA%B3%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>弗朗西斯科·巴斯克斯·德·科罗纳多</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/C%C3%ADbola</t>
+  </si>
+  <si>
+    <t>en-Cíbola</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dominguez-Escalante_Expedition</t>
+  </si>
+  <si>
+    <t>en-Dominguez-Escalante Expedition</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%8F%B2_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>圣菲 (新墨西哥州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E6%B9%96</t>
+  </si>
+  <si>
+    <t>犹他湖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E7%9C%81</t>
+  </si>
+  <si>
+    <t>上加利福尼亚省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%8D%89%E8%B4%B8%E6%98%93</t>
+  </si>
+  <si>
+    <t>皮草贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A3%94%E5%8A%A0%E6%8B%BF%E5%A4%A7%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>法裔加拿大人</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/%C3%89tienne_Provost</t>
+  </si>
+  <si>
+    <t>en-Étienne Provost</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Peter_Skene_Ogden</t>
+  </si>
+  <si>
+    <t>en-Peter Skene Ogden</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A7%86%C2%B7%E6%9F%8F%E7%91%9E%E5%93%B2</t>
+  </si>
+  <si>
+    <t>吉姆·柏瑞哲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%90%E6%B9%96</t>
+  </si>
+  <si>
+    <t>大盐湖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%97%A8%E6%95%99</t>
+  </si>
+  <si>
+    <t>摩门教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E5%9F%BA%E7%9D%A3%E5%90%8E%E6%9C%9F%E5%9C%A3%E5%BE%92%E6%95%99%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E7%99%BE%E7%BF%B0</t>
+  </si>
+  <si>
+    <t>杨百翰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%96%80%E6%95%99%E6%8B%93%E8%8D%92%E8%80%85</t>
+  </si>
+  <si>
+    <t>摩门教拓荒者</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Salt_Lake_Valley</t>
+  </si>
+  <si>
+    <t>en-Salt Lake Valley</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%9C%82%E5%B7%A2</t>
+  </si>
+  <si>
+    <t>蜂巢</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B3%B6%E5%B8%82%E5%8E%9F%E5%AD%90%E5%BD%88%E7%88%86%E7%82%B8</t>
+  </si>
+  <si>
+    <t>广岛市原子弹爆炸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>三权分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%AD%E5%8D%9A</t>
+  </si>
+  <si>
+    <t>赌博</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%93%A6%E6%B2%99%E5%A5%87</t>
+  </si>
+  <si>
+    <t>前瓦沙奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>拉美裔人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>英国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>德国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
+  </si>
+  <si>
+    <t>丹麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>罗马天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%99%BB</t>
+  </si>
+  <si>
+    <t>雷登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%85%8B%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>帕克城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>锡安国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E5%BF%B5%E7%A2%91%E8%B0%B7</t>
+  </si>
+  <si>
+    <t>纪念碑谷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%96%80%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>拱门国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%96%AF%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>布莱斯峡谷国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%BD%E8%B0%B7%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>峡谷地国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>犹他大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>犹他州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%99%BE%E7%BF%B0%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>杨百翰大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E4%BC%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>韦伯州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B1%B1%E8%B0%B7%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>犹他山谷大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B6%B3%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美国足球大联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
+  </si>
+  <si>
+    <t>国家大学体育协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>小联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%AE%89%E9%82%A3%E7%BD%95%E5%A4%A9%E4%BD%BF</t>
+  </si>
+  <si>
+    <t>洛杉矶安那罕天使</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%81%93%E5%A5%87</t>
+  </si>
+  <si>
+    <t>洛杉矶道奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NBA</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E7%88%B5%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>犹他爵士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NBA%E5%8F%91%E5%B1%95%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>NBA发展联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%A1%94_(%E7%8A%B9%E4%BB%96%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>阿尔塔 (犹他州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%99%BE%E7%BF%B0</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%89%BE%E6%9E%97</t>
+  </si>
+  <si>
+    <t>亨利·艾林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AE%BA%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>理论化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B0%94%E7%89%B9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>戈尔特斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B9%BB%E5%B0%8F%E8%AA%AA</t>
+  </si>
+  <si>
+    <t>科幻小说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%90%E6%B9%96%E5%9F%8E%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>盐湖城国际机场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>达美航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E8%B3%AA%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国地质调查局</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/North_American_Vertical_Datum_of_1988</t>
+  </si>
+  <si>
+    <t>en-North American Vertical Datum of 1988</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Leonard_J._Arrington</t>
+  </si>
+  <si>
+    <t>en-Leonard J. Arrington</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Davis_Bitton</t>
+  </si>
+  <si>
+    <t>en-Davis Bitton</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Shadow_Mountain</t>
+  </si>
+  <si>
+    <t>en-Shadow Mountain</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>Template talk-美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>艾奥瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密歇根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>联邦地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
+  </si>
+  <si>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳瓦萨岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>澳洲国家图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E%E5%B7%9E%E6%97%97</t>
-  </si>
-  <si>
-    <t>犹他州州旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州首府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E6%B9%96%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>鹽湖城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
-  </si>
-  <si>
-    <t>en-List of U.S. states by elevation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份依加入联邦顺序排列列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Utah</t>
-  </si>
-  <si>
-    <t>en-List of Governors of Utah</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C%C2%B7%E8%B5%AB%E4%BC%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>加里·赫伯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E%E5%89%AF%E5%B7%9E%E9%95%BF</t>
-  </si>
-  <si>
-    <t>犹他州副州长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%B3%93%E5%A1%9E%C2%B7%E8%80%83%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>斯賓塞·考克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Utah</t>
-  </si>
-  <si>
-    <t>en-List of United States Senators from Utah</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
-  </si>
-  <si>
-    <t>奧林·哈奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E6%9D%8E_(%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB%E5%AE%B6)</t>
-  </si>
-  <si>
-    <t>麥克·李 (美國政治家)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Utah</t>
-  </si>
-  <si>
-    <t>en-United States congressional delegations from Utah</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州时区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%B1%B1%E5%8C%BA%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美山区时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9207:00</t>
-  </si>
-  <si>
-    <t>UTC−07-00</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC%E2%88%9206:00</t>
-  </si>
-  <si>
-    <t>UTC−06-00</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
-  </si>
-  <si>
-    <t>ISO 3166-2-US</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>犹他州行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
-  </si>
-  <si>
-    <t>郡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%90%E6%B9%96%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>盐湖城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%9F%BA%E7%9D%A3%E5%BE%8C%E6%9C%9F%E8%81%96%E5%BE%92%E6%95%99%E6%9C%83</t>
-  </si>
-  <si>
-    <t>耶穌基督後期聖徒教會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
-  </si>
-  <si>
-    <t>北歐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%A0%BC%E7%99%BB_(%E7%8A%B9%E4%BB%96%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>奥格登 (犹他州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8B%A5%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>普若佛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国人口调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%B9%94%E6%B2%BB_(%E7%8A%B9%E4%BB%96%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>圣乔治 (犹他州)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gallup</t>
-  </si>
-  <si>
-    <t>en-Gallup</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ute_people</t>
-  </si>
-  <si>
-    <t>en-Ute people</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Colorado_River_Numic_language</t>
-  </si>
-  <si>
-    <t>en-Colorado River Numic language</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E6%99%AE%E9%9F%A6%E5%B8%83%E6%B4%9B%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>古代普韦布洛印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%82%A3%E8%90%A8%E5%90%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>阿那萨吉人</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Fremont_culture</t>
-  </si>
-  <si>
-    <t>en-Fremont culture</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E9%9C%8D%E6%97%8F</t>
-  </si>
-  <si>
-    <t>納瓦霍族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%96%E6%9D%BE%E5%B0%BC%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>肖松尼人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E5%B0%A4%E7%89%B9%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>派尤特人</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Goshute</t>
-  </si>
-  <si>
-    <t>en-Goshute</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E7%A7%91%C2%B7%E5%B7%B4%E6%96%AF%E5%85%8B%E6%96%AF%C2%B7%E5%BE%B7%C2%B7%E7%A7%91%E7%BD%97%E7%BA%B3%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>弗朗西斯科·巴斯克斯·德·科罗纳多</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/C%C3%ADbola</t>
-  </si>
-  <si>
-    <t>en-Cíbola</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dominguez-Escalante_Expedition</t>
-  </si>
-  <si>
-    <t>en-Dominguez-Escalante Expedition</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%8F%B2_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>圣菲 (新墨西哥州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E6%B9%96</t>
-  </si>
-  <si>
-    <t>犹他湖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E7%9C%81</t>
-  </si>
-  <si>
-    <t>上加利福尼亚省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%8D%89%E8%B4%B8%E6%98%93</t>
-  </si>
-  <si>
-    <t>皮草贸易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A3%94%E5%8A%A0%E6%8B%BF%E5%A4%A7%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>法裔加拿大人</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/%C3%89tienne_Provost</t>
-  </si>
-  <si>
-    <t>en-Étienne Provost</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Peter_Skene_Ogden</t>
-  </si>
-  <si>
-    <t>en-Peter Skene Ogden</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%A7%86%C2%B7%E6%9F%8F%E7%91%9E%E5%93%B2</t>
-  </si>
-  <si>
-    <t>吉姆·柏瑞哲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9B%90%E6%B9%96</t>
-  </si>
-  <si>
-    <t>大盐湖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%97%A8%E6%95%99</t>
-  </si>
-  <si>
-    <t>摩门教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A8%A3%E5%9F%BA%E7%9D%A3%E5%90%8E%E6%9C%9F%E5%9C%A3%E5%BE%92%E6%95%99%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>耶稣基督后期圣徒教会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E7%99%BE%E7%BF%B0</t>
-  </si>
-  <si>
-    <t>杨百翰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%96%80%E6%95%99%E6%8B%93%E8%8D%92%E8%80%85</t>
-  </si>
-  <si>
-    <t>摩門教拓荒者</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Salt_Lake_Valley</t>
-  </si>
-  <si>
-    <t>en-Salt Lake Valley</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9C%82%E5%B7%A2</t>
-  </si>
-  <si>
-    <t>蜂巢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B3%B6%E5%B8%82%E5%8E%9F%E5%AD%90%E5%BD%88%E7%88%86%E7%82%B8</t>
-  </si>
-  <si>
-    <t>廣島市原子彈爆炸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>三权分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%AD%E5%8D%9A</t>
-  </si>
-  <si>
-    <t>賭博</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%93%A6%E6%B2%99%E5%A5%87</t>
-  </si>
-  <si>
-    <t>前瓦沙奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>拉美裔人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>英國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>德國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
-  </si>
-  <si>
-    <t>丹麥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>羅馬天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%99%BB</t>
-  </si>
-  <si>
-    <t>雷登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%85%8B%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>帕克城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>錫安國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E5%BF%B5%E7%A2%91%E8%B0%B7</t>
-  </si>
-  <si>
-    <t>紀念碑谷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%B1%E9%96%80%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>拱門國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%96%AF%E5%B3%BD%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>布萊斯峽谷國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%BD%E8%B0%B7%E5%9C%B0%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>峽谷地國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>犹他大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>猶他州立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%99%BE%E7%BF%B0%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>楊百翰大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E4%BC%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>韦伯州立大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B1%B1%E8%B0%B7%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>猶他山谷大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B6%B3%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美國足球大聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
-  </si>
-  <si>
-    <t>國家大學體育協會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>小聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%AE%89%E9%82%A3%E7%BD%95%E5%A4%A9%E4%BD%BF</t>
-  </si>
-  <si>
-    <t>洛杉磯安那罕天使</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%81%93%E5%A5%87</t>
-  </si>
-  <si>
-    <t>洛杉磯道奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NBA</t>
-  </si>
-  <si>
-    <t>NBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E7%88%B5%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>猶他爵士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NBA%E5%8F%91%E5%B1%95%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>NBA发展联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%A1%94_(%E7%8A%B9%E4%BB%96%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>阿尔塔 (犹他州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E7%99%BE%E7%BF%B0</t>
-  </si>
-  <si>
-    <t>楊百翰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%89%BE%E6%9E%97</t>
-  </si>
-  <si>
-    <t>亨利·艾林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AE%BA%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>理论化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B0%94%E7%89%B9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>戈尔特斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B9%BB%E5%B0%8F%E8%AA%AA</t>
-  </si>
-  <si>
-    <t>科幻小說</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%90%E6%B9%96%E5%9F%8E%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
-  </si>
-  <si>
-    <t>盐湖城国际机场</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>達美航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E8%B3%AA%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國地質調查局</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/North_American_Vertical_Datum_of_1988</t>
-  </si>
-  <si>
-    <t>en-North American Vertical Datum of 1988</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Leonard_J._Arrington</t>
-  </si>
-  <si>
-    <t>en-Leonard J. Arrington</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Davis_Bitton</t>
-  </si>
-  <si>
-    <t>en-Davis Bitton</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Shadow_Mountain</t>
-  </si>
-  <si>
-    <t>en-Shadow Mountain</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>Template talk-美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>艾奥瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>缅因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密歇根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聯邦地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳瓦萨岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>澳洲國家圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1955,7 +1952,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -2387,7 +2384,7 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>17</v>
@@ -2413,13 +2410,13 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
       </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
       <c r="G31" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -2558,10 +2555,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
         <v>63</v>
-      </c>
-      <c r="F36" t="s">
-        <v>64</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2587,10 +2584,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
         <v>65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2616,10 +2613,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -2645,10 +2642,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G39" t="n">
         <v>5</v>
@@ -2674,10 +2671,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2703,10 +2700,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -2732,10 +2729,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -2761,10 +2758,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2790,10 +2787,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2819,10 +2816,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -2848,10 +2845,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2877,10 +2874,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2906,10 +2903,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2935,10 +2932,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2964,10 +2961,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2993,10 +2990,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3022,10 +3019,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3051,10 +3048,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3080,10 +3077,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3109,10 +3106,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3138,10 +3135,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3167,10 +3164,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3196,10 +3193,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3225,10 +3222,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3254,10 +3251,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -3283,10 +3280,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3312,10 +3309,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3341,10 +3338,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3370,10 +3367,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3399,10 +3396,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3428,10 +3425,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3457,10 +3454,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3486,10 +3483,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>8</v>
@@ -3515,10 +3512,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3544,10 +3541,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G70" t="n">
         <v>5</v>
@@ -3573,10 +3570,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3602,10 +3599,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3631,10 +3628,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3660,10 +3657,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3689,10 +3686,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3718,10 +3715,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3747,10 +3744,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3776,10 +3773,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3805,10 +3802,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3834,10 +3831,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3863,10 +3860,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3892,10 +3889,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3950,10 +3947,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3979,10 +3976,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -4008,10 +4005,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4037,10 +4034,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4066,10 +4063,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4095,10 +4092,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4124,10 +4121,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4153,10 +4150,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4182,10 +4179,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4211,10 +4208,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4240,10 +4237,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4269,10 +4266,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
@@ -4298,10 +4295,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -4327,10 +4324,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -4356,10 +4353,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4385,10 +4382,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4414,10 +4411,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4443,10 +4440,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4472,10 +4469,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4501,10 +4498,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4530,10 +4527,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4559,10 +4556,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4588,10 +4585,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4617,10 +4614,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4646,10 +4643,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4675,10 +4672,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="G109" t="n">
         <v>5</v>
@@ -4704,10 +4701,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4733,10 +4730,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4762,10 +4759,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4791,10 +4788,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4820,10 +4817,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4849,10 +4846,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4878,10 +4875,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4907,10 +4904,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4936,10 +4933,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4965,10 +4962,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4994,10 +4991,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5023,10 +5020,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>5</v>
@@ -5052,10 +5049,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5081,10 +5078,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5110,10 +5107,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5139,10 +5136,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5168,10 +5165,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5197,10 +5194,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5226,10 +5223,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5255,10 +5252,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5284,10 +5281,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5313,10 +5310,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5342,10 +5339,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5371,10 +5368,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F133" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5400,10 +5397,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5429,10 +5426,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5458,10 +5455,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5487,10 +5484,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5516,10 +5513,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5545,10 +5542,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5574,10 +5571,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5603,10 +5600,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5632,10 +5629,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5661,10 +5658,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5690,10 +5687,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5719,10 +5716,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5748,10 +5745,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5777,10 +5774,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5806,10 +5803,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5835,10 +5832,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5864,10 +5861,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5893,10 +5890,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5922,10 +5919,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5951,10 +5948,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -5980,10 +5977,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6009,10 +6006,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6038,10 +6035,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6067,10 +6064,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6096,10 +6093,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6125,10 +6122,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6154,10 +6151,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6183,10 +6180,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6212,10 +6209,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6241,10 +6238,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6270,10 +6267,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6299,10 +6296,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6328,10 +6325,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6357,10 +6354,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6386,10 +6383,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6415,10 +6412,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6444,10 +6441,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6473,10 +6470,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6502,10 +6499,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6531,10 +6528,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6560,10 +6557,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6589,10 +6586,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6618,10 +6615,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6647,10 +6644,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6676,10 +6673,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6705,10 +6702,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6734,10 +6731,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6763,10 +6760,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6792,10 +6789,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6821,10 +6818,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6850,10 +6847,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6879,10 +6876,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6908,10 +6905,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6937,10 +6934,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6966,10 +6963,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6995,10 +6992,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7024,10 +7021,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7053,10 +7050,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7082,10 +7079,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7111,10 +7108,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -7140,10 +7137,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7169,10 +7166,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7198,10 +7195,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7227,10 +7224,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7256,10 +7253,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7285,18 +7282,76 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>381</v>
+      </c>
+      <c r="F199" t="s">
+        <v>382</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="s">
+        <v>4</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200" t="n">
+        <v>199</v>
+      </c>
+      <c r="E200" t="s">
+        <v>383</v>
+      </c>
+      <c r="F200" t="s">
+        <v>384</v>
+      </c>
+      <c r="G200" t="n">
+        <v>6</v>
+      </c>
+      <c r="H200" t="s">
+        <v>4</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>200</v>
+      </c>
+      <c r="E201" t="s">
+        <v>383</v>
+      </c>
+      <c r="F201" t="s">
         <v>385</v>
       </c>
-      <c r="F199" t="s">
-        <v>386</v>
-      </c>
-      <c r="G199" t="n">
-        <v>1</v>
-      </c>
-      <c r="H199" t="s">
-        <v>4</v>
-      </c>
-      <c r="I199" t="n">
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="s">
+        <v>4</v>
+      </c>
+      <c r="I201" t="n">
         <v>3</v>
       </c>
     </row>
